--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_1_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_1_sine_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.76000000000012</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.399991234052322e-13</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="I2" t="n">
-        <v>1.399991234052322e-13</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>48.23256770856436</v>
+        <v>47.25970911196823</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[38.299781813648764, 58.16535360347996]</t>
+          <t>[39.2551837557467, 55.264234468189755]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.038058528024521e-12</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.038058528024521e-12</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="P2" t="n">
-        <v>1.679289766783734</v>
+        <v>1.641552918091964</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.4528686746331196, 1.9057108589343486]</t>
+          <t>[1.4654476241970409, 1.8176582119868874]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>49.73419716394682</v>
+        <v>57.10540656633878</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[43.665323603695086, 55.80307072419855]</t>
+          <t>[52.01344501731727, 62.19736811536029]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>16.67699699699708</v>
+        <v>16.80630630630639</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.8568168168169</v>
+        <v>16.16866866866875</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.49717717717726</v>
+        <v>17.44394394394403</v>
       </c>
     </row>
     <row r="3">
@@ -667,39 +667,39 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.76000000000012</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I3" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>42.72345877570363</v>
+        <v>55.40776038738573</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[33.89471635767802, 51.552201193729246]</t>
+          <t>[48.27588598998206, 62.5396347847894]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.155076034820013e-12</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.155076034820013e-12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.03150035457358</v>
+        <v>1.893131909370426</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.8176582119868874, 2.245342497160272]</t>
+          <t>[1.7547634641672714, 2.0315003545735797]</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -709,11 +709,11 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>51.01729693653664</v>
+        <v>52.2649300560555</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[46.32283710215116, 55.711756770922115]</t>
+          <t>[48.26483082077008, 56.265029291340916]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>15.40116116116124</v>
+        <v>15.89539539539548</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.62654654654662</v>
+        <v>15.39439439439447</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.17577577577586</v>
+        <v>16.39639639639648</v>
       </c>
     </row>
     <row r="4">
@@ -753,39 +753,39 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.76000000000012</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>5.551115123125783e-16</v>
+        <v>7.223333042816193e-12</v>
       </c>
       <c r="I4" t="n">
-        <v>5.551115123125783e-16</v>
+        <v>7.223333042816193e-12</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>43.30464640167527</v>
+        <v>43.22628322416569</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[34.01165392059167, 52.59763888275887]</t>
+          <t>[31.080010509780216, 55.372555938551166]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.647748769708414e-12</v>
+        <v>5.748925335780086e-09</v>
       </c>
       <c r="O4" t="n">
-        <v>3.647748769708414e-12</v>
+        <v>5.748925335780086e-09</v>
       </c>
       <c r="P4" t="n">
-        <v>2.345974093671658</v>
+        <v>2.245342497160272</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[2.132131951084964, 2.559816236258351]</t>
+          <t>[1.9560266571900398, 2.5346583371305043]</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -795,11 +795,11 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>51.75150231637303</v>
+        <v>54.622581185936</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[46.98821128735522, 56.51479334539085]</t>
+          <t>[48.32984294286025, 60.915319429011745]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>14.2620220220221</v>
+        <v>14.6201201201202</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.48740740740747</v>
+        <v>13.57257257257264</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.03663663663672</v>
+        <v>15.66766766766776</v>
       </c>
     </row>
     <row r="5">
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.76000000000012</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -853,25 +853,25 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>48.11744806523127</v>
+        <v>50.5175835339561</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[40.30907644328422, 55.925819687178326]</t>
+          <t>[44.12703923614342, 56.90812783176878]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.710763631025428</v>
+        <v>2.597553084950119</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.534658337130504, 2.886868924920351]</t>
+          <t>[2.4591846397469648, 2.735921530153274]</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -881,11 +881,11 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>47.28502223716248</v>
+        <v>52.73882238508907</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[42.877019479445366, 51.69302499487959]</t>
+          <t>[49.28742706748364, 56.190217702694504]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>12.94062062062069</v>
+        <v>13.34484484484491</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.30270270270276</v>
+        <v>12.84384384384391</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.57853853853861</v>
+        <v>13.84584584584592</v>
       </c>
     </row>
     <row r="6">
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.76000000000012</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -939,25 +939,25 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>52.96452552274636</v>
+        <v>51.03704081005723</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[45.92644938069378, 60.002601664798945]</t>
+          <t>[42.93991255747383, 59.13416906264064]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.962342622303889</v>
+        <v>3.050395269251351</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[2.8239741771007347, 3.100711067507044]</t>
+          <t>[2.874289975356427, 3.226500563146275]</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -967,11 +967,11 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>51.71744338013428</v>
+        <v>51.0844885572775</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[47.423155129654944, 56.01173163061361]</t>
+          <t>[45.82449557597006, 56.344481538584944]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>12.02930930930937</v>
+        <v>11.70520520520526</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.52808808808815</v>
+        <v>11.06756756756762</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.5305305305306</v>
+        <v>12.34284284284291</v>
       </c>
     </row>
     <row r="7">
@@ -1011,39 +1011,39 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.76000000000012</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I7" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>42.67886903186659</v>
+        <v>50.36766005569682</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[34.11516313838732, 51.24257492534586]</t>
+          <t>[41.73989426578246, 58.99542584561117]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.620748228489902e-13</v>
+        <v>2.442490654175344e-15</v>
       </c>
       <c r="O7" t="n">
-        <v>4.620748228489902e-13</v>
+        <v>2.442490654175344e-15</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.84284260144662</v>
+        <v>-3.031526844905466</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-3.056684744033312, -2.6290004588599274]</t>
+          <t>[-3.2202110883643122, -2.8428426014466197]</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1053,11 +1053,11 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>54.38064519366408</v>
+        <v>50.9675810963374</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.37555958753006, 59.3857307997981]</t>
+          <t>[45.540874056514, 56.394288136160796]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>10.29781781781787</v>
+        <v>10.97647647647653</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.523203203203254</v>
+        <v>10.29329329329335</v>
       </c>
       <c r="Z7" t="n">
-        <v>11.07243243243249</v>
+        <v>11.65965965965972</v>
       </c>
     </row>
     <row r="8">
@@ -1097,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.62000000000057</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>5.184741524999481e-13</v>
       </c>
       <c r="I8" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>5.184741524999481e-13</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>54.60951104228033</v>
+        <v>49.21448745742568</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[45.344189038482384, 63.87483304607828]</t>
+          <t>[36.97507977887731, 61.453895135974044]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>2.477558158631155e-10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>2.477558158631155e-10</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.817684702318774</v>
+        <v>-2.603842559732081</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.993789996213698, -2.6415794084238495]</t>
+          <t>[-2.868000500574466, -2.3396846188896956]</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1139,11 +1139,11 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>46.69688706192967</v>
+        <v>51.58846137251286</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[41.36184549228073, 52.0319286315786]</t>
+          <t>[45.21295906447442, 57.9639636805513]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>11.48924924924951</v>
+        <v>10.70432432432457</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.77117117117141</v>
+        <v>9.618378378378601</v>
       </c>
       <c r="Z8" t="n">
-        <v>12.2073273273276</v>
+        <v>11.79027027027055</v>
       </c>
     </row>
     <row r="9">
@@ -1183,39 +1183,39 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.62000000000057</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>7.771561172376096e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I9" t="n">
-        <v>7.771561172376096e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>44.23581573424821</v>
+        <v>49.11188835512958</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[36.53520294334013, 51.93642852515628]</t>
+          <t>[41.42809438380347, 56.79568232645569]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4.440892098500626e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O9" t="n">
-        <v>4.440892098500626e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="P9" t="n">
-        <v>3.050395269251351</v>
+        <v>2.899447874484274</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[2.8742899753564273, 3.2265005631462746]</t>
+          <t>[2.7485004797171966, 3.050395269251351]</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1225,11 +1225,11 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>52.40168155703667</v>
+        <v>51.32207156733372</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[47.629835749270946, 57.1735273648024]</t>
+          <t>[46.960911550929566, 55.683231583737864]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>13.18186186186215</v>
+        <v>13.91045045045077</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.46378378378406</v>
+        <v>13.28990990991022</v>
       </c>
       <c r="Z9" t="n">
-        <v>13.89993993994025</v>
+        <v>14.53099099099133</v>
       </c>
     </row>
     <row r="10">
@@ -1269,39 +1269,39 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.62000000000057</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.800115612127229e-12</v>
+        <v>3.752553823233029e-14</v>
       </c>
       <c r="I10" t="n">
-        <v>1.800115612127229e-12</v>
+        <v>3.752553823233029e-14</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>42.24651889239179</v>
+        <v>42.55256864945668</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[31.902445632475846, 52.590592152307735]</t>
+          <t>[32.523342050551825, 52.58179524836154]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.620830136772611e-10</v>
+        <v>5.615530263014534e-11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.620830136772611e-10</v>
+        <v>5.615530263014534e-11</v>
       </c>
       <c r="P10" t="n">
-        <v>2.773658378845043</v>
+        <v>2.647868883205812</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[2.5095004380026573, 3.037816319687428]</t>
+          <t>[2.408868841491273, 2.8868689249203507]</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1311,11 +1311,11 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>51.99552122531047</v>
+        <v>48.48112299473428</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[46.169274209823435, 57.8217682407975]</t>
+          <t>[43.214977937776176, 53.74726805169238]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>14.31027027027059</v>
+        <v>14.94468468468503</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.23315315315345</v>
+        <v>13.96216216216249</v>
       </c>
       <c r="Z10" t="n">
-        <v>15.38738738738773</v>
+        <v>15.92720720720758</v>
       </c>
     </row>
     <row r="11">
@@ -1355,39 +1355,39 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.62000000000057</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.887379141862766e-15</v>
       </c>
       <c r="I11" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.887379141862766e-15</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>52.89849331789031</v>
+        <v>46.67285282575168</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[44.79622611184551, 61.000760523935114]</t>
+          <t>[36.23707188380704, 57.10863376769631]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.235167523816472e-11</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.235167523816472e-11</v>
       </c>
       <c r="P11" t="n">
-        <v>2.220184598032426</v>
+        <v>2.157289850212811</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[2.0566582537014257, 2.383710942363426]</t>
+          <t>[1.9308687580621946, 2.383710942363427]</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1397,11 +1397,11 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>52.94681963341912</v>
+        <v>55.20381982947237</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[48.578871698007966, 57.314767568830284]</t>
+          <t>[49.728222619109225, 60.67941703983552]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>16.56708708708745</v>
+        <v>16.96144144144183</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.90030030030065</v>
+        <v>16.030630630631</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.23387387387426</v>
+        <v>17.89225225225267</v>
       </c>
     </row>
     <row r="12">
@@ -1441,39 +1441,39 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.62000000000057</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I12" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>42.67988430295875</v>
+        <v>45.14962648539196</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[34.235918252240026, 51.12385035367748]</t>
+          <t>[37.803014455574164, 52.49623851520975]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2.962075029699918e-13</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="O12" t="n">
-        <v>2.962075029699918e-13</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="P12" t="n">
-        <v>1.817658211986887</v>
+        <v>1.754763464167271</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.616395018964118, 2.0189214050096567]</t>
+          <t>[1.5660792207084242, 1.9434477076261185]</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1483,11 +1483,11 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>50.73088320470431</v>
+        <v>47.31768349142437</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[45.797252314013264, 55.66451409539535]</t>
+          <t>[42.83057917264393, 51.80478781020481]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>18.20840840840881</v>
+        <v>18.61621621621665</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.38774774774813</v>
+        <v>17.84054054054095</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.02906906906949</v>
+        <v>19.39189189189235</v>
       </c>
     </row>
     <row r="13">
@@ -1527,53 +1527,53 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.62000000000057</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.887379141862766e-14</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="I13" t="n">
-        <v>1.887379141862766e-14</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>44.7105882768949</v>
+        <v>42.76934903206233</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[36.354253976181745, 53.06692257760805]</t>
+          <t>[34.3150898849892, 51.22360817913546]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.75175454539567e-14</v>
+        <v>2.882138971926906e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>4.75175454539567e-14</v>
+        <v>2.882138971926906e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>1.50318447288881</v>
+        <v>1.364816027685655</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.2767633807381937, 1.7296055650394262]</t>
+          <t>[1.1383949355350405, 1.5912371198362694]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="T13" t="n">
-        <v>52.61519896420879</v>
+        <v>52.84733444018413</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[47.04120229948481, 58.18919562893278]</t>
+          <t>[47.7876033085698, 57.907065571798455]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>19.49069069069112</v>
+        <v>20.21927927927975</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.56744744744785</v>
+        <v>19.28846846846893</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.41393393393439</v>
+        <v>21.15009009009058</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_1_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_1_sine_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.75000000000012</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I2" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>47.25970911196823</v>
+        <v>50.9528243016453</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[39.2551837557467, 55.264234468189755]</t>
+          <t>[44.43524361806392, 57.47040498522668]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.641552918091964</v>
+        <v>1.641552918091963</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.4654476241970409, 1.8176582119868874]</t>
+          <t>[1.5157634224527312, 1.7673424137311953]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>57.10540656633878</v>
+        <v>53.51242317893855</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[52.01344501731727, 62.19736811536029]</t>
+          <t>[49.294895293141444, 57.729951064735666]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>16.80630630630639</v>
+        <v>16.82108108108118</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.16866866866875</v>
+        <v>16.36522522522531</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.44394394394403</v>
+        <v>17.27693693693704</v>
       </c>
     </row>
     <row r="3">
@@ -667,39 +667,39 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.75000000000012</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>5.551115123125783e-16</v>
       </c>
       <c r="I3" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>5.551115123125783e-16</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>55.40776038738573</v>
+        <v>46.30159689555665</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[48.27588598998206, 62.5396347847894]</t>
+          <t>[36.91168020484457, 55.69151358626873]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.445954880973659e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.445954880973659e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>1.893131909370426</v>
+        <v>1.981184556317888</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.7547634641672714, 2.0315003545735797]</t>
+          <t>[1.7673424137311953, 2.19502669890458]</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -709,11 +709,11 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>52.2649300560555</v>
+        <v>54.39181031858526</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[48.26483082077008, 56.265029291340916]</t>
+          <t>[49.37045275354444, 59.41316788362609]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>15.89539539539548</v>
+        <v>15.59027027027035</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.39439439439447</v>
+        <v>14.81531531531539</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.39639639639648</v>
+        <v>16.36522522522531</v>
       </c>
     </row>
     <row r="4">
@@ -753,39 +753,39 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.75000000000012</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>7.223333042816193e-12</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I4" t="n">
-        <v>7.223333042816193e-12</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>43.22628322416569</v>
+        <v>51.4860510747172</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[31.080010509780216, 55.372555938551166]</t>
+          <t>[42.13780087610726, 60.83430127332714]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>5.748925335780086e-09</v>
+        <v>1.820765760385257e-14</v>
       </c>
       <c r="O4" t="n">
-        <v>5.748925335780086e-09</v>
+        <v>1.820765760385257e-14</v>
       </c>
       <c r="P4" t="n">
-        <v>2.245342497160272</v>
+        <v>2.270500396288118</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.9560266571900398, 2.5346583371305043]</t>
+          <t>[2.081816152829272, 2.4591846397469643]</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -795,11 +795,11 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>54.622581185936</v>
+        <v>52.54000590437643</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[48.32984294286025, 60.915319429011745]</t>
+          <t>[47.754833574681705, 57.32517823407115]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>14.6201201201202</v>
+        <v>14.54180180180188</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.57257257257264</v>
+        <v>13.85801801801809</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.66766766766776</v>
+        <v>15.22558558558567</v>
       </c>
     </row>
     <row r="5">
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.75000000000012</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -853,25 +853,25 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>50.5175835339561</v>
+        <v>50.41129455014292</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[44.12703923614342, 56.90812783176878]</t>
+          <t>[40.64883420009022, 60.17375490019562]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.498801083243961e-13</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.498801083243961e-13</v>
       </c>
       <c r="P5" t="n">
         <v>2.597553084950119</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.4591846397469648, 2.735921530153274]</t>
+          <t>[2.396289891927349, 2.7988162779728896]</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -881,11 +881,11 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>52.73882238508907</v>
+        <v>48.62092050808955</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.28742706748364, 56.190217702694504]</t>
+          <t>[43.33339507065192, 53.90844594552719]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>13.34484484484491</v>
+        <v>13.35657657657665</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.84384384384391</v>
+        <v>12.62720720720727</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.84584584584592</v>
+        <v>14.08594594594602</v>
       </c>
     </row>
     <row r="6">
@@ -925,39 +925,39 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.75000000000012</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>8.781864124784988e-14</v>
       </c>
       <c r="I6" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>8.781864124784988e-14</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>51.03704081005723</v>
+        <v>44.51744997921416</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[42.93991255747383, 59.13416906264064]</t>
+          <t>[35.78918708190737, 53.24571287652094]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>2.224886941348814e-13</v>
       </c>
       <c r="O6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>2.224886941348814e-13</v>
       </c>
       <c r="P6" t="n">
-        <v>3.050395269251351</v>
+        <v>3.062974218815274</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[2.874289975356427, 3.226500563146275]</t>
+          <t>[2.8365531266646578, 3.28939531096589]</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -967,11 +967,11 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>51.0844885572775</v>
+        <v>51.9798923784287</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[45.82449557597006, 56.344481538584944]</t>
+          <t>[46.19950498469248, 57.76027977216492]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>11.70520520520526</v>
+        <v>11.66990990990997</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.06756756756762</v>
+        <v>10.84936936936943</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.34284284284291</v>
+        <v>12.49045045045052</v>
       </c>
     </row>
     <row r="7">
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.75000000000012</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1025,25 +1025,25 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>50.36766005569682</v>
+        <v>52.73856039448123</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[41.73989426578246, 58.99542584561117]</t>
+          <t>[44.956922863764824, 60.52019792519763]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.442490654175344e-15</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2.442490654175344e-15</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-3.031526844905466</v>
+        <v>-3.00636894577762</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-3.2202110883643122, -2.8428426014466197]</t>
+          <t>[-3.16989529010862, -2.8428426014466197]</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1053,11 +1053,11 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>50.9675810963374</v>
+        <v>48.91100199694813</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[45.540874056514, 56.394288136160796]</t>
+          <t>[43.947089834725354, 53.874914159170906]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>10.97647647647653</v>
+        <v>10.89495495495501</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.29329329329335</v>
+        <v>10.3023423423424</v>
       </c>
       <c r="Z7" t="n">
-        <v>11.65965965965972</v>
+        <v>11.48756756756763</v>
       </c>
     </row>
     <row r="8">
@@ -1097,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.8300000000006</v>
+        <v>25.68000000000058</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>5.184741524999481e-13</v>
+        <v>8.43769498715119e-15</v>
       </c>
       <c r="I8" t="n">
-        <v>5.184741524999481e-13</v>
+        <v>8.43769498715119e-15</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>49.21448745742568</v>
+        <v>50.30955928984566</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[36.97507977887731, 61.453895135974044]</t>
+          <t>[40.36923216892175, 60.24988641076957]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.477558158631155e-10</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="O8" t="n">
-        <v>2.477558158631155e-10</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.603842559732081</v>
+        <v>-2.880579450138389</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.868000500574466, -2.3396846188896956]</t>
+          <t>[-3.081842643161158, -2.6793162571156195]</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1139,11 +1139,11 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>51.58846137251286</v>
+        <v>47.12621793241055</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[45.21295906447442, 57.9639636805513]</t>
+          <t>[41.383040453423256, 52.86939541139784]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>10.70432432432457</v>
+        <v>11.77321321321348</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.618378378378601</v>
+        <v>10.95063063063088</v>
       </c>
       <c r="Z8" t="n">
-        <v>11.79027027027055</v>
+        <v>12.59579579579608</v>
       </c>
     </row>
     <row r="9">
@@ -1183,39 +1183,39 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.8300000000006</v>
+        <v>25.68000000000058</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="I9" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>49.11188835512958</v>
+        <v>43.33055620949024</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[41.42809438380347, 56.79568232645569]</t>
+          <t>[35.63684617100049, 51.02426624797999]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>8.659739592076221e-15</v>
       </c>
       <c r="O9" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>8.659739592076221e-15</v>
       </c>
       <c r="P9" t="n">
-        <v>2.899447874484274</v>
+        <v>-3.081842643161158</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[2.7485004797171966, 3.050395269251351]</t>
+          <t>[-3.2579479370560804, -2.9057373492662357]</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1225,11 +1225,11 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>51.32207156733372</v>
+        <v>48.15625785128861</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[46.960911550929566, 55.683231583737864]</t>
+          <t>[43.31754431586643, 52.9949713867108]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>13.91045045045077</v>
+        <v>12.59579579579608</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.28990990991022</v>
+        <v>11.8760360360363</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.53099099099133</v>
+        <v>13.31555555555585</v>
       </c>
     </row>
     <row r="10">
@@ -1269,39 +1269,39 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.8300000000006</v>
+        <v>25.68000000000058</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.752553823233029e-14</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="I10" t="n">
-        <v>3.752553823233029e-14</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>42.55256864945668</v>
+        <v>48.19765634387019</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[32.523342050551825, 52.58179524836154]</t>
+          <t>[38.66204015443936, 57.73327253330101]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>5.615530263014534e-11</v>
+        <v>2.962075029699918e-13</v>
       </c>
       <c r="O10" t="n">
-        <v>5.615530263014534e-11</v>
+        <v>2.962075029699918e-13</v>
       </c>
       <c r="P10" t="n">
-        <v>2.647868883205812</v>
+        <v>2.761079429281119</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[2.408868841491273, 2.8868689249203507]</t>
+          <t>[2.5598162362583503, 2.962342622303888]</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1311,11 +1311,11 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>48.48112299473428</v>
+        <v>48.71158545371875</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[43.214977937776176, 53.74726805169238]</t>
+          <t>[43.44632861495469, 53.97684229248282]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>14.94468468468503</v>
+        <v>14.39519519519552</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.96216216216249</v>
+        <v>13.57261261261292</v>
       </c>
       <c r="Z10" t="n">
-        <v>15.92720720720758</v>
+        <v>15.21777777777812</v>
       </c>
     </row>
     <row r="11">
@@ -1355,39 +1355,39 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.8300000000006</v>
+        <v>25.68000000000058</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.887379141862766e-15</v>
+        <v>3.33066907387547e-16</v>
       </c>
       <c r="I11" t="n">
-        <v>1.887379141862766e-15</v>
+        <v>3.33066907387547e-16</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>46.67285282575168</v>
+        <v>49.86214916622133</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[36.23707188380704, 57.10863376769631]</t>
+          <t>[39.29005095632992, 60.43424737611274]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.235167523816472e-11</v>
+        <v>2.534861209824157e-12</v>
       </c>
       <c r="O11" t="n">
-        <v>1.235167523816472e-11</v>
+        <v>2.534861209824157e-12</v>
       </c>
       <c r="P11" t="n">
-        <v>2.157289850212811</v>
+        <v>2.345974093671658</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.9308687580621946, 2.383710942363427]</t>
+          <t>[2.1321319510849652, 2.55981623625835]</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1397,11 +1397,11 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>55.20381982947237</v>
+        <v>53.37680169506451</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[49.728222619109225, 60.67941703983552]</t>
+          <t>[47.90574008368215, 58.84786330644688]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>16.96144144144183</v>
+        <v>16.09177177177213</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.030630630631</v>
+        <v>15.21777777777812</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.89225225225267</v>
+        <v>16.96576576576614</v>
       </c>
     </row>
     <row r="12">
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.8300000000006</v>
+        <v>25.68000000000058</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1455,25 +1455,25 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>45.14962648539196</v>
+        <v>48.11591737672549</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[37.803014455574164, 52.49623851520975]</t>
+          <t>[39.7565580580962, 56.47527669535478]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>4.218847493575595e-15</v>
       </c>
       <c r="O12" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>4.218847493575595e-15</v>
       </c>
       <c r="P12" t="n">
-        <v>1.754763464167271</v>
+        <v>1.805079262422964</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.5660792207084242, 1.9434477076261185]</t>
+          <t>[1.6289739685280402, 1.9811845563178885]</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1483,11 +1483,11 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>47.31768349142437</v>
+        <v>51.94873034463103</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[42.83057917264393, 51.80478781020481]</t>
+          <t>[46.943465025675195, 56.953995663586866]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>18.61621621621665</v>
+        <v>18.30246246246287</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.84054054054095</v>
+        <v>17.5827027027031</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.39189189189235</v>
+        <v>19.02222222222265</v>
       </c>
     </row>
     <row r="13">
@@ -1527,53 +1527,53 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.8300000000006</v>
+        <v>25.68000000000058</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>3.663735981263017e-15</v>
       </c>
       <c r="I13" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>3.663735981263017e-15</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>42.76934903206233</v>
+        <v>45.9367227348545</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[34.3150898849892, 51.22360817913546]</t>
+          <t>[37.07127380537077, 54.802171664338225]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>2.882138971926906e-13</v>
+        <v>1.343369859796439e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>2.882138971926906e-13</v>
+        <v>1.343369859796439e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>1.364816027685655</v>
+        <v>1.415131825941349</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.1383949355350405, 1.5912371198362694]</t>
+          <t>[1.2138686329185786, 1.616395018964119]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>52.84733444018413</v>
+        <v>51.89857211539601</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[47.7876033085698, 57.907065571798455]</t>
+          <t>[46.46099184751763, 57.336152383274396]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>20.21927927927975</v>
+        <v>19.89621621621666</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28846846846893</v>
+        <v>19.07363363363405</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.15009009009058</v>
+        <v>20.71879879879926</v>
       </c>
     </row>
   </sheetData>
